--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_67.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1107692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
+          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.84, 15.86)]</t>
+          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:08.080000', '0:00:16.640000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:05.400000', '0:00:13.720000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['B:dim7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:14.680000', '0:00:17.360000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -708,497 +726,462 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(75.56, 95.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(117.68, 119.48)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
